--- a/JADD_story_board_v001.xlsx
+++ b/JADD_story_board_v001.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acharlan\Desktop\CMU Heinz\2017\95-852 Applied Data Science\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielhoui/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="1" xr2:uid="{507BE73A-50AC-4A38-A343-D478A04DCFAC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32400" windowHeight="19700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proposal Scope" sheetId="1" r:id="rId1"/>
     <sheet name="Story Board" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Project Proposal</t>
   </si>
@@ -276,11 +282,17 @@
   <si>
     <t>Andrew</t>
   </si>
+  <si>
+    <t>Dan and Jay</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -682,219 +694,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6748E-436F-42E1-8A7F-9AEFD0D2A584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" display="https://www.kaggle.com/deepmatrix/imdb-5000-movie-dataset" xr:uid="{0D197D41-8CBD-460E-87BA-4FC2ABC17D8E}"/>
+    <hyperlink ref="A17" r:id="rId1" display="https://www.kaggle.com/deepmatrix/imdb-5000-movie-dataset"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -902,22 +914,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEAA173-7161-4D8E-95E1-F3B650DD9676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -931,7 +943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,23 +951,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -966,7 +984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>

--- a/JADD_story_board_v001.xlsx
+++ b/JADD_story_board_v001.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Project Proposal</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Jason</t>
+  </si>
+  <si>
+    <t>Kermit the Frog</t>
   </si>
 </sst>
 </file>
@@ -918,7 +921,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -950,6 +953,9 @@
       <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/JADD_story_board_v001.xlsx
+++ b/JADD_story_board_v001.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Project Proposal</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>Kermit the Frog</t>
+  </si>
+  <si>
+    <t>Understand how to upload code in iterations on GitHub</t>
+  </si>
+  <si>
+    <t>Dan</t>
   </si>
 </sst>
 </file>
@@ -921,14 +927,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="2" max="3" width="43.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -994,6 +999,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
